--- a/cfg/活动.xlsx
+++ b/cfg/活动.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="q_activity" sheetId="4" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>wxdgaming.boot.core.timer.CronExpress</t>
+    <t>wxdgaming.spring.boot.core.timer.CronExpress</t>
   </si>
   <si>
     <t>活动流水号</t>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1165,7 +1165,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" ht="14.25" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" ht="14.25" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="G8"/>
       <c r="H8"/>
     </row>
-    <row r="9" ht="14.25" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1004</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="G9"/>
       <c r="H9"/>
     </row>
-    <row r="10" ht="14.25" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1005</v>
       </c>
@@ -1338,7 +1338,7 @@
       <c r="G10"/>
       <c r="H10"/>
     </row>
-    <row r="11" ht="14.25" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1006</v>
       </c>
@@ -1356,7 +1356,7 @@
       <c r="G11"/>
       <c r="H11"/>
     </row>
-    <row r="12" ht="14.25" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1007</v>
       </c>
